--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -955,7 +955,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Immune deficiency, cororbidity</t>
+          <t>Immune deficiency, comorbidity</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -450,12 +450,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p = 0.013</t>
+          <t>p = .01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>V = 0.34</t>
+          <t>V = .34</t>
         </is>
       </c>
     </row>
@@ -491,12 +491,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p = 0.0013</t>
+          <t>p = .001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>η² = 0.16</t>
+          <t>η² = .16</t>
         </is>
       </c>
     </row>
@@ -528,12 +528,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ns (p = 0.066)</t>
+          <t>ns (p = .07)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>V = 0.27</t>
+          <t>V = .27</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ns (p = 0.37)</t>
+          <t>ns (p = .37)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>V = 0.17</t>
+          <t>V = .17</t>
         </is>
       </c>
     </row>
@@ -610,12 +610,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>p = 0.022</t>
+          <t>p = .02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>V = 0.32</t>
+          <t>V = .32</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>p = 0.024</t>
+          <t>p = .02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>V = 0.32</t>
+          <t>V = .32</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = .19)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>V = 0.21</t>
+          <t>V = .21</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = 0.089)</t>
+          <t>ns (p = .09)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>V = 0.26</t>
+          <t>V = .26</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p = 0.026</t>
+          <t>p = .03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>V = 0.31</t>
+          <t>V = .31</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p = 0.028</t>
+          <t>p = .03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>V = 0.31</t>
+          <t>V = .31</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ns (p = 0.14)</t>
+          <t>ns (p = .14)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>V = 0.23</t>
+          <t>V = .23</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ns (p = 0.31)</t>
+          <t>ns (p = .31)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>V = 0.18</t>
+          <t>V = .18</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ns (p = 0.54)</t>
+          <t>ns (p = .54)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>V = 0.13</t>
+          <t>V = .13</t>
         </is>
       </c>
     </row>
@@ -943,12 +943,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ns (p = 0.46)</t>
+          <t>ns (p = .46)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>V = 0.14</t>
+          <t>V = .14</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ns (p = 0.23)</t>
+          <t>ns (p = .23)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>V = 0.2</t>
+          <t>V = .2</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p &lt; .001</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>η² = 0.86</t>
+          <t>η² = .86</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1139,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ns (p = 0.67)</t>
+          <t>ns (p = .67)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>η² = -0.017</t>
+          <t>η² = .017</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p = 0.029</t>
+          <t>p = .03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>η² = 0.071</t>
+          <t>η² = .071</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ns (p = 0.075)</t>
+          <t>ns (p = .07)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>η² = 0.045</t>
+          <t>η² = .045</t>
         </is>
       </c>
     </row>
@@ -1262,12 +1262,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>p = 0.015</t>
+          <t>p = .01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>η² = 0.091</t>
+          <t>η² = .091</t>
         </is>
       </c>
     </row>
@@ -1303,12 +1303,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ns (p = 0.13)</t>
+          <t>ns (p = .13)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>η² = 0.029</t>
+          <t>η² = .029</t>
         </is>
       </c>
     </row>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ns (p = 0.073)</t>
+          <t>ns (p = .07)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>η² = 0.045</t>
+          <t>η² = .045</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ns (p = 0.22)</t>
+          <t>ns (p = .22)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>η² = 0.014</t>
+          <t>η² = .014</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = 0.098)</t>
+          <t>ns (p = .10)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>η² = 0.037</t>
+          <t>η² = .037</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p = 0.012</t>
+          <t>p = .01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>η² = 0.097</t>
+          <t>η² = .097</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p = 0.023</t>
+          <t>p = .02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>η² = 0.078</t>
+          <t>η² = .078</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p = 0.046</t>
+          <t>p = .046</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>η² = 0.058</t>
+          <t>η² = .058</t>
         </is>
       </c>
     </row>
